--- a/Notion data/Danh mục dịch vụ.xlsx
+++ b/Notion data/Danh mục dịch vụ.xlsx
@@ -754,7 +754,7 @@
     <t>[{'id': '69f0d638-9380-4a71-830d-209d53f41b0a'}, {'id': '5b98792d-d545-48cb-afbc-3303d9cf213a'}, {'id': '18fa2ed6-eb0e-4d0b-9a53-59b1e6b4b1df'}, {'id': 'e6774a7d-5dc7-4da0-91b4-e14eac33383d'}, {'id': '49339fd1-9c3b-48ac-b54c-63c3ae4e8747'}, {'id': '8c762e39-5ed4-4805-9280-d8022bf96570'}, {'id': '61e20641-9534-4d5a-98dd-ef43ca4a4a70'}, {'id': '079fd571-5cee-4824-8f35-cc482629a102'}, {'id': 'ff4755f6-0850-4e45-a769-a8f4c70ca2c2'}, {'id': '503b09d8-4792-400c-813e-5e23f48e9ef5'}, {'id': '13361e13-7cde-45f4-bc92-fbce7d440fb6'}, {'id': '29662fbe-635c-4bcc-bc10-4c611a458cc8'}, {'id': '2b0cd0ec-cd1b-40c1-a91f-e4c3c881b4b1'}, {'id': 'f963053f-6c7c-4e24-89bf-308e001f42fa'}, {'id': '436bafcc-cc2f-4978-8251-0baa2ead74c3'}]</t>
   </si>
   <si>
-    <t>[{'id': '9c77e551-4f42-4917-a1dc-d11b9e2fb45c'}, {'id': '507731ab-6350-4d0e-b400-6c26727b8695'}]</t>
+    <t>[{'id': '9c77e551-4f42-4917-a1dc-d11b9e2fb45c'}, {'id': '507731ab-6350-4d0e-b400-6c26727b8695'}, {'id': '1b1d2f72-d6e9-42d3-955a-1a0a49b73829'}]</t>
   </si>
   <si>
     <t>[{'id': 'b127c463-053c-4ce5-922a-8eb073b7c973'}]</t>
@@ -829,7 +829,7 @@
     <t>[{'id': '6c94f654-d7e6-47c5-872e-2b3fcffe3375'}, {'id': '221bd5ec-14f2-48a2-b15a-e0a7c5021991'}, {'id': '39efae20-9108-457a-866e-8e19452fab64'}, {'id': '4ff7ff08-c27a-4ba9-bb58-09cf2b10c733'}, {'id': '077b68a9-3b91-45c0-b65b-38407cd8b34c'}, {'id': '48196282-9d59-4d57-b773-b901b436a552'}, {'id': '6b391703-aeeb-46bc-a769-a3003186dae9'}, {'id': '16b411d4-9045-4e9b-946f-2cacb0d9ca71'}, {'id': '1da7ee79-5c9a-48f0-b519-3e167b460e5e'}, {'id': 'faefedae-50e5-440c-b811-5c93d9a2658d'}, {'id': '80f3e4e5-4e69-4a50-9bad-a06e11bafbd4'}, {'id': 'f0fe32d6-54de-417f-b768-cdfedc634dc9'}, {'id': 'bb2557b8-93db-4da1-a029-ab1d6dd6cbee'}, {'id': 'e45fab92-058b-45b9-811b-638b6bd8edfa'}, {'id': '2133cf29-6905-4c92-8377-8a5a87c5624c'}, {'id': 'dc15e9b9-e2ff-40ff-b93f-40bc6a4ac485'}, {'id': '4dcd06a7-150a-4199-b134-d4491287c202'}, {'id': '34ad44c5-e453-4e9a-80a5-0279ca8909d3'}, {'id': '1b07a9cd-2331-43ab-864c-4296ff8cdf5c'}, {'id': '90761cd4-2448-4ef2-9ba8-626424ad8e32'}, {'id': '99d48ae5-fd8d-43bc-8b27-f0497a639648'}]</t>
   </si>
   <si>
-    <t>[{'id': '7355abcd-4e78-4e18-a887-df9b0c813384'}, {'id': 'b891c715-9b57-46cd-9821-76fcdde9693f'}, {'id': 'ed903a2b-f314-4868-8a06-b2ebbb50f56a'}, {'id': '69e208f4-7e64-4f4a-b7b8-e5e153578b51'}, {'id': '923c14a1-6eb1-43db-9c59-906ef68b3708'}, {'id': '0d9ba1cd-c68a-4a38-ab6d-9a8908107319'}, {'id': 'b1c39539-cdd1-4030-a7c4-aa5d8563052b'}, {'id': 'd2457de2-24b3-436c-b0fb-c0a64ee4224c'}, {'id': 'db37732b-0118-4323-816b-59ebed38fcea'}, {'id': '2ce94753-438e-49e5-9fe8-ac791e32f1b3'}, {'id': '690d3bf6-1ca8-46c5-98fe-59ea99e4edcb'}, {'id': 'f02967b7-5890-4d69-9c20-d9afd3085a9e'}]</t>
+    <t>[{'id': '7355abcd-4e78-4e18-a887-df9b0c813384'}, {'id': 'b891c715-9b57-46cd-9821-76fcdde9693f'}, {'id': 'ed903a2b-f314-4868-8a06-b2ebbb50f56a'}, {'id': '69e208f4-7e64-4f4a-b7b8-e5e153578b51'}, {'id': '923c14a1-6eb1-43db-9c59-906ef68b3708'}, {'id': '0d9ba1cd-c68a-4a38-ab6d-9a8908107319'}, {'id': 'b1c39539-cdd1-4030-a7c4-aa5d8563052b'}, {'id': 'd2457de2-24b3-436c-b0fb-c0a64ee4224c'}, {'id': 'db37732b-0118-4323-816b-59ebed38fcea'}, {'id': '2ce94753-438e-49e5-9fe8-ac791e32f1b3'}, {'id': '690d3bf6-1ca8-46c5-98fe-59ea99e4edcb'}, {'id': 'f02967b7-5890-4d69-9c20-d9afd3085a9e'}, {'id': '3418e210-a3f0-45d5-b401-695da6859d6e'}]</t>
   </si>
   <si>
     <t>[{'id': '3288f33b-4b81-4780-9e35-7c0bcd92c0a6'}, {'id': 'f3476db0-1c9c-42a9-8514-e848b546f8d4'}, {'id': '22a44544-b3f5-486c-8fbd-7d3188836960'}, {'id': '7cb7922a-84fe-4b82-b64d-07251d2b2e7c'}, {'id': 'dcd300c3-115c-4b54-b7c8-308a82d9554a'}, {'id': 'f60a7fa2-4a1b-4db2-a0a2-ddddc1cc2a67'}, {'id': 'a9f1afd7-5adc-4fa4-9be9-a427a4698950'}, {'id': '662707fe-164a-4d09-bc48-6afbbc231a11'}, {'id': 'ced0223e-5d9d-47a0-957c-8e48f0213199'}, {'id': '3513c336-3fbe-4a50-b8a1-a051f9dfadb5'}, {'id': 'c7093cae-83a6-453f-a6ac-5d6339792d58'}, {'id': '8b569e64-6f61-427c-820b-b3c5691c285d'}, {'id': '378abf63-67ab-40b8-9cb5-0c5f78012192'}, {'id': 'd849b979-617e-4fb2-8638-ac769fde540e'}, {'id': '9ca7d3e5-a50c-410c-9baf-c91464b0dff4'}, {'id': '1936e1d1-5f3d-4bd1-b469-a1951eadb081'}, {'id': '8b0bed59-8ebb-4430-a43b-11f65c771d44'}, {'id': '5bdbe45a-92e0-4899-a455-c7c5a5b290b0'}, {'id': 'a47ada25-beec-41c9-9d5e-386de27852cb'}, {'id': 'bb1e8aed-34fd-40f3-9ed2-f399edaac6db'}, {'id': '1f67b5c2-3c70-4184-8eca-0894bcd84ec1'}, {'id': '991c0e6e-9833-43dd-a8be-212e3a02532c'}, {'id': '48906e1f-067e-4318-8cd1-3c51d7caaf72'}, {'id': '3746bb3c-771e-404a-81da-bafef442d53c'}]</t>
@@ -4647,7 +4647,7 @@
         <v>220</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U24" t="s">
         <v>221</v>
@@ -4683,7 +4683,7 @@
         <v>220</v>
       </c>
       <c r="AF24">
-        <v>7000000</v>
+        <v>15000000</v>
       </c>
       <c r="AG24" t="s">
         <v>274</v>
@@ -4698,7 +4698,7 @@
         <v>220</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AL24" t="s">
         <v>274</v>
@@ -8147,7 +8147,7 @@
         <v>220</v>
       </c>
       <c r="T49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U49" t="s">
         <v>221</v>
@@ -8183,7 +8183,7 @@
         <v>220</v>
       </c>
       <c r="AF49">
-        <v>57200000</v>
+        <v>61200000</v>
       </c>
       <c r="AG49" t="s">
         <v>274</v>
@@ -8198,7 +8198,7 @@
         <v>220</v>
       </c>
       <c r="AK49">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="AL49" t="s">
         <v>274</v>

--- a/Notion data/Danh mục dịch vụ.xlsx
+++ b/Notion data/Danh mục dịch vụ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="368">
   <si>
     <t>object</t>
   </si>
@@ -169,6 +169,18 @@
     <t>page</t>
   </si>
   <si>
+    <t>87a76089-a9fc-4141-9031-08f66861847b</t>
+  </si>
+  <si>
+    <t>6100d07e-5035-4b12-a357-224471be12b2</t>
+  </si>
+  <si>
+    <t>0f43b3fb-2a7a-4d89-9716-835faff67b28</t>
+  </si>
+  <si>
+    <t>d3309b29-c69b-4a88-88fc-1beafeefca76</t>
+  </si>
+  <si>
     <t>ab2f4b73-227c-4089-867d-87ed124ac352</t>
   </si>
   <si>
@@ -316,6 +328,12 @@
     <t>540226e3-8d3e-4d95-9152-6e75ba27997f</t>
   </si>
   <si>
+    <t>2024-08-09T07:39:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-04T13:43:00.000Z</t>
+  </si>
+  <si>
     <t>2024-07-31T13:41:00.000Z</t>
   </si>
   <si>
@@ -502,6 +520,18 @@
     <t>2024-07-16T08:43:00.000Z</t>
   </si>
   <si>
+    <t>https://www.notion.so/c-y-m-m-t-87a76089a9fc4141903108f66861847b</t>
+  </si>
+  <si>
+    <t>https://www.notion.so/c-y-m-m-t-6100d07e50354b12a357224471be12b2</t>
+  </si>
+  <si>
+    <t>https://www.notion.so/nh-n-ng-ti-n-0f43b3fb2a7a4d899716835faff67b28</t>
+  </si>
+  <si>
+    <t>https://www.notion.so/nguy-n-th-m-trinh-d3309b29c69b4a8888fc1beafeefca76</t>
+  </si>
+  <si>
     <t>https://www.notion.so/Phun-m-y-ab2f4b73227c4089867d87ed124ac352</t>
   </si>
   <si>
@@ -652,12 +682,12 @@
     <t>user</t>
   </si>
   <si>
+    <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
+  </si>
+  <si>
     <t>4bf7fa70-2231-4ca9-967e-2f77ed8fc936</t>
   </si>
   <si>
-    <t>30a14424-7f11-4ee5-a793-fece5c78e36c</t>
-  </si>
-  <si>
     <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
   </si>
   <si>
@@ -691,7 +721,16 @@
     <t>relation</t>
   </si>
   <si>
-    <t>[{'id': 'df2d63bf-492b-40e7-815d-1a3f52d7708e'}]</t>
+    <t>[{'id': '41dd5a52-bc83-4aba-9079-7f093f3667ed'}]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[{'id': 'b92b8247-db73-47cf-9cf8-e260dd3e0f64'}]</t>
+  </si>
+  <si>
+    <t>[{'id': 'df2d63bf-492b-40e7-815d-1a3f52d7708e'}, {'id': 'bf35af16-d129-47db-bc0b-c6c1d2ffdafb'}]</t>
   </si>
   <si>
     <t>[{'id': '26bb5da2-f8bd-42ea-82c3-ee7d1fd2de19'}]</t>
@@ -712,9 +751,6 @@
     <t>[{'id': '9dae482f-7541-43d7-8f64-6f8624cb6383'}]</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>[{'id': 'c68a037f-1118-45ce-9b05-35621813304e'}]</t>
   </si>
   <si>
@@ -760,7 +796,7 @@
     <t>[{'id': 'b127c463-053c-4ce5-922a-8eb073b7c973'}]</t>
   </si>
   <si>
-    <t>[{'id': '8957471d-282f-4d80-ac85-98220f79ba2e'}, {'id': '22fd700c-3d02-498e-8dcc-fa7d34284fbc'}, {'id': '39269a39-f58a-40dc-9abe-0cabd1207d4a'}, {'id': '2b986cdd-219c-41dc-acdf-d756d64d6d3b'}, {'id': '0182c351-2448-4d7e-914c-80b4cb64dec2'}, {'id': 'ca9921a2-bef2-4bd9-908b-8e0357dd8abb'}, {'id': 'c82cd687-0a71-42c7-bce0-8598aa9c8149'}, {'id': 'a984bd25-5eae-4288-ab00-a9a15ec4fd03'}]</t>
+    <t>[{'id': '8957471d-282f-4d80-ac85-98220f79ba2e'}, {'id': '22fd700c-3d02-498e-8dcc-fa7d34284fbc'}, {'id': '39269a39-f58a-40dc-9abe-0cabd1207d4a'}, {'id': '2b986cdd-219c-41dc-acdf-d756d64d6d3b'}, {'id': '0182c351-2448-4d7e-914c-80b4cb64dec2'}, {'id': 'ca9921a2-bef2-4bd9-908b-8e0357dd8abb'}, {'id': 'c82cd687-0a71-42c7-bce0-8598aa9c8149'}, {'id': 'a984bd25-5eae-4288-ab00-a9a15ec4fd03'}, {'id': '3e2b8a26-bda0-407c-9119-f817bbdd850a'}]</t>
   </si>
   <si>
     <t>[{'id': '26e8c796-39c0-45e7-be49-77bc0e11a3a4'}, {'id': 'c70fbd97-6b34-4dd1-a868-faf313d1fbea'}]</t>
@@ -814,7 +850,7 @@
     <t>[{'id': '83ff4f77-66d6-4524-8426-93e21517ac56'}]</t>
   </si>
   <si>
-    <t>[{'id': '1b4f980e-e310-41a1-b154-dee831a3ac62'}, {'id': 'bc7e7a9e-c5b8-4f3e-af7d-b87fb1a1e202'}, {'id': '523770c9-864c-46c6-b853-af5972d3ef2c'}, {'id': '3c240132-4187-451f-b995-811ebc46d0f9'}, {'id': '6026e69f-2c69-476e-89b5-a47aabfa3aa2'}, {'id': '94206766-f08b-4026-a836-a4dfb98ff5ba'}, {'id': '874a319e-1f53-4fab-aa8b-4202ae9c027a'}, {'id': 'bc66d896-ec55-4ba0-9e38-563669749a0e'}, {'id': '0583dcb6-bc00-4f59-bb28-f108f1c7f006'}, {'id': 'f811354a-bad4-4726-9cab-5114d34207d6'}, {'id': '409b256a-25a6-4bbe-9409-746ff3094f3e'}, {'id': 'e2beda79-0b93-4717-977c-c0ea2d579453'}]</t>
+    <t>[{'id': '1b4f980e-e310-41a1-b154-dee831a3ac62'}, {'id': 'bc7e7a9e-c5b8-4f3e-af7d-b87fb1a1e202'}, {'id': '523770c9-864c-46c6-b853-af5972d3ef2c'}, {'id': '3c240132-4187-451f-b995-811ebc46d0f9'}, {'id': '6026e69f-2c69-476e-89b5-a47aabfa3aa2'}, {'id': '94206766-f08b-4026-a836-a4dfb98ff5ba'}, {'id': '874a319e-1f53-4fab-aa8b-4202ae9c027a'}, {'id': 'bc66d896-ec55-4ba0-9e38-563669749a0e'}, {'id': '0583dcb6-bc00-4f59-bb28-f108f1c7f006'}, {'id': 'f811354a-bad4-4726-9cab-5114d34207d6'}, {'id': '409b256a-25a6-4bbe-9409-746ff3094f3e'}, {'id': 'e2beda79-0b93-4717-977c-c0ea2d579453'}, {'id': '91bd6ad5-844b-4685-84e4-baf75a9d3576'}]</t>
   </si>
   <si>
     <t>[{'id': 'acdb29b2-b492-4c81-a88a-f3b15388ede5'}]</t>
@@ -854,6 +890,15 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>[{'type': 'text', 'text': {'content': 'cấy mỡ mặt ', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'cấy mỡ mặt ', 'href': None}]</t>
+  </si>
+  <si>
+    <t>[{'type': 'text', 'text': {'content': 'nhấn đồng tiền', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'nhấn đồng tiền', 'href': None}]</t>
+  </si>
+  <si>
+    <t>[{'type': 'text', 'text': {'content': 'nguyễn thị mỹ trinh', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'nguyễn thị mỹ trinh', 'href': None}]</t>
   </si>
   <si>
     <t>[{'type': 'text', 'text': {'content': 'Phun mày', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': 'Phun mày', 'href': None}]</t>
@@ -1443,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX50"/>
+  <dimension ref="A1:AX54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1609,10 +1654,10 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1621,109 +1666,109 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="M2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="O2" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q2" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V2" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z2" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="AB2" t="b">
         <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF2">
-        <v>1500000</v>
+        <v>36000000</v>
       </c>
       <c r="AG2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH2" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI2" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM2" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN2" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ2" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AS2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -1734,10 +1779,10 @@
         <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -1746,109 +1791,109 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N3" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="O3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P3" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="AB3" t="b">
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF3">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH3" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK3">
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM3" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN3" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP3" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AS3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU3" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -1859,10 +1904,10 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -1871,118 +1916,109 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L4" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="O4" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P4" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q4" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V4" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y4" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z4" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA4" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AB4" t="b">
         <v>0</v>
       </c>
       <c r="AC4" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF4">
-        <v>13000000</v>
+        <v>7000000</v>
       </c>
       <c r="AG4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH4" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI4" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM4" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN4" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP4" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ4" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AS4" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT4" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>327</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>336</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -1993,10 +2029,10 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -2005,118 +2041,109 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K5" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L5" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="M5" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="O5" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P5" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q5" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R5" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S5" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V5" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W5" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y5" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z5" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA5" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="AB5" t="b">
         <v>0</v>
       </c>
       <c r="AC5" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD5" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE5" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF5">
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH5" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI5" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ5" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM5" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN5" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP5" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ5" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AS5" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT5" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>328</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>337</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -2127,10 +2154,10 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -2139,118 +2166,109 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K6" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L6" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="M6" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="O6" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q6" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S6" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V6" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W6" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y6" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z6" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="AB6" t="b">
         <v>0</v>
       </c>
       <c r="AC6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE6" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF6">
-        <v>13600000</v>
+        <v>3000000</v>
       </c>
       <c r="AG6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH6" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI6" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ6" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK6">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM6" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN6" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP6" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ6" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AS6" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT6" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>337</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -2261,10 +2279,10 @@
         <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -2273,118 +2291,109 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="M7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="O7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="AB7" t="b">
         <v>0</v>
       </c>
       <c r="AC7" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF7">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
       <c r="AG7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH7" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK7">
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM7" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AS7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU7" t="s">
-        <v>284</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>329</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>338</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:50">
@@ -2395,10 +2404,10 @@
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -2407,118 +2416,118 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K8" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L8" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="M8" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N8" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O8" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P8" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q8" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R8" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V8" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y8" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z8" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="AB8" t="b">
         <v>0</v>
       </c>
       <c r="AC8" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD8" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF8">
-        <v>10000000</v>
+        <v>13000000</v>
       </c>
       <c r="AG8" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH8" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI8" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM8" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN8" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP8" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AS8" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT8" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU8" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="AV8" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="AW8" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="AX8" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:50">
@@ -2529,10 +2538,10 @@
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -2541,118 +2550,118 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K9" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L9" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M9" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P9" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q9" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V9" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y9" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z9" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA9" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AB9" t="b">
         <v>0</v>
       </c>
       <c r="AC9" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>900000</v>
       </c>
       <c r="AG9" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH9" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM9" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN9" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP9" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ9" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AS9" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT9" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU9" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="AV9" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="AW9" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="AX9" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:50">
@@ -2663,10 +2672,10 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -2675,118 +2684,118 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K10" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L10" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M10" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N10" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O10" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q10" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R10" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S10" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V10" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W10" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y10" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z10" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA10" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="AB10" t="b">
         <v>0</v>
       </c>
       <c r="AC10" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD10" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE10" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>13600000</v>
       </c>
       <c r="AG10" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH10" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI10" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ10" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AL10" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM10" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN10" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP10" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ10" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AS10" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT10" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AV10" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="AW10" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="AX10" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:50">
@@ -2797,10 +2806,10 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -2809,118 +2818,118 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K11" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L11" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M11" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N11" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O11" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q11" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R11" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S11" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U11" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V11" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W11" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y11" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z11" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA11" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AB11" t="b">
         <v>0</v>
       </c>
       <c r="AC11" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD11" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE11" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF11">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="AG11" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH11" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI11" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ11" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM11" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN11" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP11" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ11" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AS11" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT11" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU11" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AV11" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="AW11" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="AX11" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -2931,10 +2940,10 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2943,118 +2952,118 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K12" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L12" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="M12" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N12" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O12" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q12" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R12" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S12" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T12">
         <v>1</v>
       </c>
       <c r="U12" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V12" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W12" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="Y12" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z12" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA12" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AB12" t="b">
         <v>0</v>
       </c>
       <c r="AC12" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD12" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE12" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF12">
-        <v>3200000</v>
+        <v>10000000</v>
       </c>
       <c r="AG12" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH12" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI12" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ12" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM12" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN12" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP12" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ12" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AS12" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT12" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU12" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="AV12" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AW12" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="AX12" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -3065,10 +3074,10 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -3077,124 +3086,118 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K13" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L13" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M13" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N13" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O13" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P13" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q13" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R13" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S13" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V13" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W13" t="s">
-        <v>220</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="Y13" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z13" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AB13" t="b">
         <v>0</v>
       </c>
       <c r="AC13" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD13" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE13" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF13">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI13" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ13" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM13" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN13" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP13" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ13" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AS13" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT13" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU13" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="AV13" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="AW13" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="AX13" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -3205,10 +3208,10 @@
         <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -3217,55 +3220,52 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K14" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L14" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M14" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N14" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O14" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q14" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R14" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S14" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V14" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W14" t="s">
-        <v>220</v>
-      </c>
-      <c r="X14">
-        <v>200000</v>
+        <v>230</v>
       </c>
       <c r="Y14" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z14" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA14" t="s">
         <v>236</v>
@@ -3274,67 +3274,64 @@
         <v>0</v>
       </c>
       <c r="AC14" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD14" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE14" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF14">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH14" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI14" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ14" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK14">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM14" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN14" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP14" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ14" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AS14" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT14" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU14" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="AV14" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="AW14" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="AX14" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -3345,10 +3342,10 @@
         <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -3357,124 +3354,118 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L15" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M15" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N15" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O15" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q15" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R15" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S15" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T15">
         <v>1</v>
       </c>
       <c r="U15" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V15" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W15" t="s">
-        <v>220</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="Y15" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z15" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA15" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="AB15" t="b">
         <v>0</v>
       </c>
       <c r="AC15" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD15" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE15" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF15">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
       <c r="AG15" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH15" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI15" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ15" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK15">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM15" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN15" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP15" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ15" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AS15" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT15" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU15" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AV15" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="AW15" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="AX15" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -3485,10 +3476,10 @@
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -3497,124 +3488,118 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L16" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M16" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N16" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O16" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P16" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q16" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R16" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S16" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T16">
         <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V16" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W16" t="s">
-        <v>220</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="Y16" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z16" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA16" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="AB16" t="b">
         <v>0</v>
       </c>
       <c r="AC16" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD16" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE16" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF16">
-        <v>500000</v>
+        <v>3200000</v>
       </c>
       <c r="AG16" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH16" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI16" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ16" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM16" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN16" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP16" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ16" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AS16" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT16" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU16" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="AV16" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="AW16" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="AX16" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:50">
@@ -3625,10 +3610,10 @@
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -3637,124 +3622,124 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L17" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M17" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N17" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O17" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P17" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q17" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R17" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S17" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U17" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V17" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W17" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X17">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z17" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA17" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AB17" t="b">
         <v>0</v>
       </c>
       <c r="AC17" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD17" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE17" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF17">
-        <v>45000000</v>
+        <v>2000000</v>
       </c>
       <c r="AG17" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH17" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI17" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ17" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK17">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM17" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN17" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP17" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ17" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR17">
         <v>0</v>
       </c>
       <c r="AS17" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT17" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU17" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="AV17" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="AW17" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="AX17" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:50">
@@ -3765,10 +3750,10 @@
         <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -3777,124 +3762,124 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M18" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O18" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P18" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q18" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R18" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S18" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U18" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V18" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W18" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X18">
-        <v>25000</v>
+        <v>200000</v>
       </c>
       <c r="Y18" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z18" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA18" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="AB18" t="b">
         <v>0</v>
       </c>
       <c r="AC18" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD18" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE18" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF18">
-        <v>500000</v>
+        <v>10000000</v>
       </c>
       <c r="AG18" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH18" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI18" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ18" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK18">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="AL18" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM18" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN18" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP18" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ18" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR18">
         <v>0</v>
       </c>
       <c r="AS18" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT18" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU18" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="AV18" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AW18" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="AX18" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -3905,10 +3890,10 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -3917,124 +3902,124 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N19" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O19" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q19" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R19" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S19" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U19" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V19" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W19" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X19">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z19" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA19" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AB19" t="b">
         <v>0</v>
       </c>
       <c r="AC19" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD19" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE19" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF19">
         <v>15000000</v>
       </c>
       <c r="AG19" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH19" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI19" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ19" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK19">
-        <v>4000000</v>
+        <v>15000000</v>
       </c>
       <c r="AL19" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM19" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN19" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP19" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ19" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR19">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT19" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU19" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="AV19" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AW19" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="AX19" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -4045,10 +4030,10 @@
         <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -4057,124 +4042,124 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O20" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q20" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R20" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S20" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U20" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V20" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W20" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X20">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z20" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA20" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AB20" t="b">
         <v>0</v>
       </c>
       <c r="AC20" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD20" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE20" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF20">
-        <v>58000000</v>
+        <v>500000</v>
       </c>
       <c r="AG20" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH20" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI20" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ20" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK20">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM20" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN20" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP20" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ20" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR20">
         <v>0</v>
       </c>
       <c r="AS20" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT20" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU20" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="AV20" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="AW20" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="AX20" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:50">
@@ -4185,10 +4170,10 @@
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -4197,124 +4182,124 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O21" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q21" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R21" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S21" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U21" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V21" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W21" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X21">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="Y21" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z21" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA21" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AB21" t="b">
         <v>0</v>
       </c>
       <c r="AC21" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD21" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE21" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF21">
-        <v>83000000</v>
+        <v>45000000</v>
       </c>
       <c r="AG21" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH21" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI21" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ21" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AL21" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM21" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN21" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP21" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ21" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR21">
         <v>0</v>
       </c>
       <c r="AS21" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT21" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU21" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="AV21" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="AW21" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="AX21" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:50">
@@ -4325,10 +4310,10 @@
         <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -4337,124 +4322,124 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q22" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R22" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S22" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
       <c r="U22" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V22" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W22" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X22">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z22" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="AB22" t="b">
         <v>0</v>
       </c>
       <c r="AC22" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD22" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE22" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF22">
-        <v>18900000</v>
+        <v>500000</v>
       </c>
       <c r="AG22" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH22" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI22" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ22" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK22">
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM22" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN22" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP22" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ22" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR22">
         <v>0</v>
       </c>
       <c r="AS22" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT22" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU22" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="AV22" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="AW22" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="AX22" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:50">
@@ -4465,10 +4450,10 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -4477,124 +4462,124 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O23" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q23" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R23" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S23" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T23">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="U23" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V23" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W23" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Y23" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z23" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA23" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AB23" t="b">
         <v>0</v>
       </c>
       <c r="AC23" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD23" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE23" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF23">
-        <v>29600000</v>
+        <v>15000000</v>
       </c>
       <c r="AG23" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH23" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI23" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ23" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK23">
-        <v>7200000</v>
+        <v>4000000</v>
       </c>
       <c r="AL23" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM23" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN23" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP23" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ23" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AS23" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT23" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU23" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="AV23" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AW23" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="AX23" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:50">
@@ -4605,7 +4590,7 @@
         <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
         <v>156</v>
@@ -4617,124 +4602,124 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N24" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O24" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q24" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R24" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S24" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T24">
         <v>3</v>
       </c>
       <c r="U24" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V24" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W24" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X24">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z24" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA24" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AB24" t="b">
         <v>0</v>
       </c>
       <c r="AC24" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD24" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE24" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF24">
-        <v>15000000</v>
+        <v>58000000</v>
       </c>
       <c r="AG24" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH24" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI24" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ24" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK24">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="AL24" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM24" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN24" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP24" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ24" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR24">
         <v>0</v>
       </c>
       <c r="AS24" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT24" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU24" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="AV24" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="AW24" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AX24" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:50">
@@ -4745,10 +4730,10 @@
         <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -4757,124 +4742,124 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N25" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P25" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q25" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R25" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S25" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V25" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W25" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Y25" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z25" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA25" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AB25" t="b">
         <v>0</v>
       </c>
       <c r="AC25" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD25" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE25" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF25">
-        <v>700000</v>
+        <v>83000000</v>
       </c>
       <c r="AG25" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH25" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI25" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ25" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK25">
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM25" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN25" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP25" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ25" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR25">
         <v>0</v>
       </c>
       <c r="AS25" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT25" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU25" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="AV25" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="AW25" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="AX25" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:50">
@@ -4885,10 +4870,10 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -4897,124 +4882,124 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K26" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M26" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N26" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O26" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q26" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R26" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S26" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U26" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V26" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W26" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Y26" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA26" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AB26" t="b">
         <v>0</v>
       </c>
       <c r="AC26" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD26" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE26" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF26">
-        <v>16700000</v>
+        <v>18900000</v>
       </c>
       <c r="AG26" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH26" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI26" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ26" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK26">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
       <c r="AL26" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM26" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN26" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP26" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ26" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR26">
         <v>0</v>
       </c>
       <c r="AS26" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT26" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU26" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="AV26" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AW26" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="AX26" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:50">
@@ -5025,10 +5010,10 @@
         <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -5037,124 +5022,124 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M27" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N27" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P27" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q27" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R27" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S27" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="U27" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V27" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W27" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X27">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z27" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA27" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AB27" t="b">
         <v>0</v>
       </c>
       <c r="AC27" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD27" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE27" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF27">
-        <v>60000000</v>
+        <v>29600000</v>
       </c>
       <c r="AG27" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH27" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI27" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ27" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK27">
-        <v>20000000</v>
+        <v>7200000</v>
       </c>
       <c r="AL27" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM27" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN27" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP27" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ27" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR27">
         <v>0</v>
       </c>
       <c r="AS27" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT27" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU27" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="AV27" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="AW27" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="AX27" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:50">
@@ -5165,10 +5150,10 @@
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -5177,124 +5162,124 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K28" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M28" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N28" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O28" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q28" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R28" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S28" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T28">
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V28" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W28" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X28">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z28" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA28" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="AB28" t="b">
         <v>0</v>
       </c>
       <c r="AC28" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD28" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE28" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF28">
-        <v>76000000</v>
+        <v>15000000</v>
       </c>
       <c r="AG28" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH28" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI28" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ28" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK28">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="AL28" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM28" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN28" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP28" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ28" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR28">
         <v>0</v>
       </c>
       <c r="AS28" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT28" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU28" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="AV28" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="AW28" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="AX28" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:50">
@@ -5305,10 +5290,10 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -5317,124 +5302,124 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K29" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M29" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N29" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O29" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q29" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R29" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S29" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T29">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="U29" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V29" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W29" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z29" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA29" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AB29" t="b">
         <v>0</v>
       </c>
       <c r="AC29" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD29" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE29" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF29">
-        <v>49200000</v>
+        <v>700000</v>
       </c>
       <c r="AG29" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH29" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI29" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ29" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK29">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP29" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ29" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR29">
         <v>0</v>
       </c>
       <c r="AS29" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT29" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU29" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="AV29" t="s">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="AW29" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="AX29" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:50">
@@ -5445,10 +5430,10 @@
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -5457,124 +5442,124 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K30" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M30" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q30" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R30" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S30" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U30" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V30" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W30" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X30">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z30" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA30" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AB30" t="b">
         <v>0</v>
       </c>
       <c r="AC30" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD30" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE30" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF30">
-        <v>8000000</v>
+        <v>18700000</v>
       </c>
       <c r="AG30" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH30" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI30" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ30" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK30">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AL30" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP30" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ30" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR30">
         <v>0</v>
       </c>
       <c r="AS30" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT30" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU30" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="AV30" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="AW30" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="AX30" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:50">
@@ -5585,10 +5570,10 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -5597,124 +5582,124 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K31" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M31" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N31" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O31" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P31" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q31" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R31" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S31" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U31" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V31" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W31" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X31">
         <v>50000</v>
       </c>
       <c r="Y31" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z31" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA31" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AB31" t="b">
         <v>0</v>
       </c>
       <c r="AC31" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD31" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE31" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF31">
+        <v>60000000</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK31">
         <v>20000000</v>
       </c>
-      <c r="AG31" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>219</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK31">
-        <v>8000000</v>
-      </c>
       <c r="AL31" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM31" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN31" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP31" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ31" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR31">
         <v>0</v>
       </c>
       <c r="AS31" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT31" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU31" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="AV31" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="AW31" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="AX31" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:50">
@@ -5725,10 +5710,10 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -5737,124 +5722,124 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K32" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L32" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M32" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N32" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O32" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q32" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R32" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S32" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U32" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V32" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W32" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Y32" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z32" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA32" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AB32" t="b">
         <v>0</v>
       </c>
       <c r="AC32" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD32" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE32" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF32">
-        <v>2500000</v>
+        <v>76000000</v>
       </c>
       <c r="AG32" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH32" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI32" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ32" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="AL32" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN32" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP32" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ32" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR32">
         <v>0</v>
       </c>
       <c r="AS32" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT32" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU32" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="AV32" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AW32" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AX32" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:50">
@@ -5865,10 +5850,10 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -5877,124 +5862,124 @@
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K33" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N33" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O33" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q33" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R33" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S33" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="U33" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V33" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W33" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
       <c r="Y33" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z33" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA33" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AB33" t="b">
         <v>0</v>
       </c>
       <c r="AC33" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD33" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE33" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF33">
-        <v>8000000</v>
+        <v>49200000</v>
       </c>
       <c r="AG33" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH33" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI33" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ33" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AL33" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM33" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN33" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP33" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ33" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR33">
         <v>0</v>
       </c>
       <c r="AS33" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT33" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU33" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="AV33" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="AW33" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="AX33" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:50">
@@ -6005,10 +5990,10 @@
         <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -6017,124 +6002,124 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K34" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M34" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N34" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O34" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P34" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q34" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R34" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S34" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U34" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V34" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W34" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X34">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="Y34" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z34" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA34" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AB34" t="b">
         <v>0</v>
       </c>
       <c r="AC34" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD34" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE34" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF34">
-        <v>23000000</v>
+        <v>8000000</v>
       </c>
       <c r="AG34" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH34" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI34" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ34" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK34">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM34" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN34" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP34" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ34" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR34">
         <v>0</v>
       </c>
       <c r="AS34" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT34" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU34" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="AV34" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="AW34" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AX34" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:50">
@@ -6145,10 +6130,10 @@
         <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -6157,124 +6142,124 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K35" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M35" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N35" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O35" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q35" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R35" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S35" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U35" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V35" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W35" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X35">
         <v>50000</v>
       </c>
       <c r="Y35" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z35" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA35" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AB35" t="b">
         <v>0</v>
       </c>
       <c r="AC35" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD35" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE35" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF35">
-        <v>1500000</v>
+        <v>20000000</v>
       </c>
       <c r="AG35" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH35" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI35" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ35" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="AL35" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN35" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP35" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ35" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR35">
         <v>0</v>
       </c>
       <c r="AS35" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT35" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU35" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="AV35" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="AW35" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AX35" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:50">
@@ -6285,10 +6270,10 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -6297,124 +6282,124 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M36" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N36" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O36" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q36" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R36" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S36" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U36" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V36" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W36" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X36">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z36" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA36" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AB36" t="b">
         <v>0</v>
       </c>
       <c r="AC36" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD36" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE36" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF36">
-        <v>15300000</v>
+        <v>2500000</v>
       </c>
       <c r="AG36" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH36" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI36" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ36" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK36">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN36" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP36" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ36" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR36">
         <v>0</v>
       </c>
       <c r="AS36" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT36" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU36" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="AV36" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="AW36" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="AX36" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:50">
@@ -6425,10 +6410,10 @@
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -6437,124 +6422,124 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K37" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L37" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M37" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N37" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O37" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q37" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R37" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S37" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U37" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V37" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W37" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z37" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA37" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AB37" t="b">
         <v>0</v>
       </c>
       <c r="AC37" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD37" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE37" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF37">
-        <v>12098000</v>
+        <v>8000000</v>
       </c>
       <c r="AG37" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH37" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI37" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ37" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK37">
-        <v>1498000</v>
+        <v>0</v>
       </c>
       <c r="AL37" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM37" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN37" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP37" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ37" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR37">
         <v>0</v>
       </c>
       <c r="AS37" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT37" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU37" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="AV37" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="AW37" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="AX37" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:50">
@@ -6565,10 +6550,10 @@
         <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -6577,124 +6562,124 @@
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K38" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M38" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N38" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O38" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q38" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R38" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S38" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U38" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V38" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W38" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="Y38" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z38" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA38" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AB38" t="b">
         <v>0</v>
       </c>
       <c r="AC38" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD38" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE38" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF38">
-        <v>3000000</v>
+        <v>23000000</v>
       </c>
       <c r="AG38" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH38" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI38" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ38" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="AL38" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM38" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN38" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP38" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ38" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR38">
         <v>0</v>
       </c>
       <c r="AS38" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT38" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU38" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="AV38" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="AW38" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AX38" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:50">
@@ -6705,10 +6690,10 @@
         <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -6717,124 +6702,124 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K39" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M39" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N39" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O39" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q39" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R39" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S39" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U39" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V39" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W39" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X39">
         <v>50000</v>
       </c>
       <c r="Y39" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z39" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA39" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AB39" t="b">
         <v>0</v>
       </c>
       <c r="AC39" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD39" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE39" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF39">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="AG39" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH39" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI39" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ39" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM39" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN39" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP39" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ39" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR39">
         <v>0</v>
       </c>
       <c r="AS39" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT39" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU39" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="AV39" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="AW39" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="AX39" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:50">
@@ -6845,10 +6830,10 @@
         <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
@@ -6857,124 +6842,124 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K40" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L40" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M40" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N40" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O40" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q40" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R40" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S40" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T40">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="U40" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V40" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W40" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X40">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="Y40" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z40" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA40" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AB40" t="b">
         <v>0</v>
       </c>
       <c r="AC40" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD40" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE40" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF40">
-        <v>409500000</v>
+        <v>15300000</v>
       </c>
       <c r="AG40" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH40" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI40" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ40" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK40">
-        <v>29000000</v>
+        <v>2000000</v>
       </c>
       <c r="AL40" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM40" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN40" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP40" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ40" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR40">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="AS40" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT40" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU40" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="AV40" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="AW40" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="AX40" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:50">
@@ -6985,10 +6970,10 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
@@ -6997,124 +6982,124 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K41" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M41" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N41" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O41" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q41" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R41" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S41" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U41" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V41" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W41" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X41">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z41" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA41" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AB41" t="b">
         <v>0</v>
       </c>
       <c r="AC41" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD41" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE41" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF41">
-        <v>133000000</v>
+        <v>12098000</v>
       </c>
       <c r="AG41" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH41" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI41" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ41" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK41">
-        <v>33000000</v>
+        <v>1498000</v>
       </c>
       <c r="AL41" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM41" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN41" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP41" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ41" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR41">
         <v>0</v>
       </c>
       <c r="AS41" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT41" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU41" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="AV41" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="AW41" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="AX41" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:50">
@@ -7125,10 +7110,10 @@
         <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
@@ -7137,124 +7122,124 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L42" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M42" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N42" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O42" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q42" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R42" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S42" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T42">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V42" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W42" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X42">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z42" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA42" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AB42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD42" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE42" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF42">
-        <v>204200000</v>
+        <v>3000000</v>
       </c>
       <c r="AG42" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH42" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI42" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ42" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK42">
-        <v>61000000</v>
+        <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM42" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN42" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP42" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ42" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR42">
         <v>0</v>
       </c>
       <c r="AS42" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT42" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU42" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="AV42" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="AW42" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="AX42" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:50">
@@ -7265,10 +7250,10 @@
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
@@ -7277,124 +7262,124 @@
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K43" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M43" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N43" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O43" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q43" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R43" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S43" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U43" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V43" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W43" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X43">
         <v>50000</v>
       </c>
       <c r="Y43" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z43" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA43" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="AB43" t="b">
         <v>0</v>
       </c>
       <c r="AC43" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD43" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE43" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF43">
-        <v>2000000</v>
+        <v>4000000</v>
       </c>
       <c r="AG43" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH43" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI43" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ43" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM43" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN43" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP43" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ43" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR43">
         <v>0</v>
       </c>
       <c r="AS43" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT43" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU43" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="AV43" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="AW43" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="AX43" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:50">
@@ -7405,10 +7390,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
@@ -7417,124 +7402,124 @@
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K44" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L44" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M44" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N44" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O44" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q44" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R44" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S44" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U44" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V44" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W44" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="Y44" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z44" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA44" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AB44" t="b">
         <v>0</v>
       </c>
       <c r="AC44" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD44" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE44" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF44">
-        <v>33645000</v>
+        <v>409500000</v>
       </c>
       <c r="AG44" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH44" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI44" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ44" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK44">
-        <v>1000000</v>
+        <v>29000000</v>
       </c>
       <c r="AL44" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM44" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN44" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP44" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ44" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR44">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="AS44" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT44" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU44" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="AV44" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="AW44" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="AX44" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="1:50">
@@ -7545,10 +7530,10 @@
         <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
@@ -7557,124 +7542,124 @@
         <v>0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K45" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L45" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M45" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N45" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O45" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q45" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R45" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S45" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U45" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V45" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W45" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="Y45" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z45" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA45" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AB45" t="b">
         <v>0</v>
       </c>
       <c r="AC45" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD45" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE45" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF45">
-        <v>3000000</v>
+        <v>133000000</v>
       </c>
       <c r="AG45" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH45" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI45" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ45" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>33000000</v>
       </c>
       <c r="AL45" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM45" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN45" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP45" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ45" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR45">
         <v>0</v>
       </c>
       <c r="AS45" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT45" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU45" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="AV45" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AW45" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AX45" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="1:50">
@@ -7685,10 +7670,10 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
@@ -7697,124 +7682,124 @@
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K46" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M46" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N46" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O46" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q46" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R46" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S46" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T46">
         <v>25</v>
       </c>
       <c r="U46" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V46" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W46" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X46">
         <v>50000</v>
       </c>
       <c r="Y46" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z46" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA46" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AB46" t="b">
         <v>1</v>
       </c>
       <c r="AC46" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD46" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE46" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF46">
-        <v>154400000</v>
+        <v>204200000</v>
       </c>
       <c r="AG46" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH46" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI46" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ46" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK46">
-        <v>30000000</v>
+        <v>61000000</v>
       </c>
       <c r="AL46" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM46" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN46" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP46" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ46" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR46">
         <v>0</v>
       </c>
       <c r="AS46" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT46" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU46" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AV46" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="AW46" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="AX46" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:50">
@@ -7825,10 +7810,10 @@
         <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
@@ -7837,124 +7822,124 @@
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="K47" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L47" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M47" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N47" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O47" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q47" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R47" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S47" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U47" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V47" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W47" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X47">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="Y47" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z47" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA47" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AB47" t="b">
         <v>0</v>
       </c>
       <c r="AC47" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD47" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE47" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF47">
-        <v>76500000</v>
+        <v>2000000</v>
       </c>
       <c r="AG47" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH47" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI47" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ47" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK47">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="AL47" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM47" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN47" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP47" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ47" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR47">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="AS47" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT47" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU47" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="AV47" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="AW47" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="AX47" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:50">
@@ -7965,10 +7950,10 @@
         <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
@@ -7977,124 +7962,124 @@
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K48" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M48" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N48" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O48" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q48" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R48" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S48" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T48">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="U48" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V48" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W48" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X48">
         <v>0</v>
       </c>
       <c r="Y48" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z48" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA48" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AB48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD48" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE48" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF48">
-        <v>49900000</v>
+        <v>35645000</v>
       </c>
       <c r="AG48" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH48" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI48" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ48" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK48">
-        <v>2300000</v>
+        <v>1000000</v>
       </c>
       <c r="AL48" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM48" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN48" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP48" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ48" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR48">
         <v>0</v>
       </c>
       <c r="AS48" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT48" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU48" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="AV48" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="AW48" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="AX48" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:50">
@@ -8105,10 +8090,10 @@
         <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
@@ -8117,124 +8102,124 @@
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K49" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L49" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M49" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N49" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O49" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q49" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R49" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S49" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T49">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U49" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V49" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W49" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X49">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z49" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA49" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="AB49" t="b">
         <v>0</v>
       </c>
       <c r="AC49" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD49" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AE49" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF49">
-        <v>61200000</v>
+        <v>3000000</v>
       </c>
       <c r="AG49" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AH49" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AI49" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AJ49" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK49">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="AL49" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AM49" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AN49" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AP49" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AQ49" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AR49">
         <v>0</v>
       </c>
       <c r="AS49" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AT49" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AU49" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AV49" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="AW49" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="AX49" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:50">
@@ -8245,10 +8230,10 @@
         <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
@@ -8257,124 +8242,684 @@
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K50" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M50" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="N50" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="O50" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="Q50" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="R50" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="S50" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="T50">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U50" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="V50" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="W50" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="X50">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="Y50" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="Z50" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="AA50" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AB50" t="b">
         <v>1</v>
       </c>
       <c r="AC50" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD50" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF50">
+        <v>154400000</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK50">
+        <v>30000000</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>338</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>345</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>354</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K51" t="s">
+        <v>221</v>
+      </c>
+      <c r="L51" t="s">
+        <v>225</v>
+      </c>
+      <c r="M51" t="s">
+        <v>221</v>
+      </c>
+      <c r="N51" t="s">
+        <v>224</v>
+      </c>
+      <c r="O51" t="s">
+        <v>226</v>
+      </c>
+      <c r="P51" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>228</v>
+      </c>
+      <c r="R51" t="s">
+        <v>229</v>
+      </c>
+      <c r="S51" t="s">
+        <v>230</v>
+      </c>
+      <c r="T51">
+        <v>2</v>
+      </c>
+      <c r="U51" t="s">
+        <v>231</v>
+      </c>
+      <c r="V51" t="s">
+        <v>232</v>
+      </c>
+      <c r="W51" t="s">
+        <v>230</v>
+      </c>
+      <c r="X51">
+        <v>150000</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF51">
+        <v>76500000</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK51">
+        <v>6500000</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR51">
+        <v>50000</v>
+      </c>
+      <c r="AS51" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>342</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>351</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K52" t="s">
+        <v>221</v>
+      </c>
+      <c r="L52" t="s">
+        <v>225</v>
+      </c>
+      <c r="M52" t="s">
+        <v>221</v>
+      </c>
+      <c r="N52" t="s">
+        <v>224</v>
+      </c>
+      <c r="O52" t="s">
+        <v>226</v>
+      </c>
+      <c r="P52" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>228</v>
+      </c>
+      <c r="R52" t="s">
+        <v>229</v>
+      </c>
+      <c r="S52" t="s">
+        <v>230</v>
+      </c>
+      <c r="T52">
+        <v>21</v>
+      </c>
+      <c r="U52" t="s">
+        <v>231</v>
+      </c>
+      <c r="V52" t="s">
+        <v>232</v>
+      </c>
+      <c r="W52" t="s">
+        <v>230</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF52">
+        <v>49900000</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK52">
+        <v>2300000</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>295</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>352</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="53" spans="1:50">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="K53" t="s">
+        <v>221</v>
+      </c>
+      <c r="L53" t="s">
+        <v>225</v>
+      </c>
+      <c r="M53" t="s">
+        <v>221</v>
+      </c>
+      <c r="N53" t="s">
+        <v>224</v>
+      </c>
+      <c r="O53" t="s">
+        <v>226</v>
+      </c>
+      <c r="P53" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>228</v>
+      </c>
+      <c r="R53" t="s">
+        <v>229</v>
+      </c>
+      <c r="S53" t="s">
+        <v>230</v>
+      </c>
+      <c r="T53">
+        <v>13</v>
+      </c>
+      <c r="U53" t="s">
+        <v>231</v>
+      </c>
+      <c r="V53" t="s">
+        <v>232</v>
+      </c>
+      <c r="W53" t="s">
+        <v>230</v>
+      </c>
+      <c r="X53">
+        <v>50000</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF53">
+        <v>61200000</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK53">
+        <v>4000000</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR53">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>340</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>345</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>354</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AF50">
+      <c r="K54" t="s">
+        <v>221</v>
+      </c>
+      <c r="L54" t="s">
+        <v>225</v>
+      </c>
+      <c r="M54" t="s">
+        <v>221</v>
+      </c>
+      <c r="N54" t="s">
+        <v>224</v>
+      </c>
+      <c r="O54" t="s">
+        <v>226</v>
+      </c>
+      <c r="P54" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>228</v>
+      </c>
+      <c r="R54" t="s">
+        <v>229</v>
+      </c>
+      <c r="S54" t="s">
+        <v>230</v>
+      </c>
+      <c r="T54">
+        <v>24</v>
+      </c>
+      <c r="U54" t="s">
+        <v>231</v>
+      </c>
+      <c r="V54" t="s">
+        <v>232</v>
+      </c>
+      <c r="W54" t="s">
+        <v>230</v>
+      </c>
+      <c r="X54">
+        <v>100000</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF54">
         <v>356950000</v>
       </c>
-      <c r="AG50" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>275</v>
-      </c>
-      <c r="AI50" t="s">
-        <v>219</v>
-      </c>
-      <c r="AJ50" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK50">
+      <c r="AG54" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK54">
         <v>91000000</v>
       </c>
-      <c r="AL50" t="s">
-        <v>274</v>
-      </c>
-      <c r="AM50" t="s">
-        <v>276</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>277</v>
-      </c>
-      <c r="AP50" t="s">
-        <v>278</v>
-      </c>
-      <c r="AQ50" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR50">
+      <c r="AL54" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>230</v>
+      </c>
+      <c r="AR54">
         <v>50000</v>
       </c>
-      <c r="AS50" t="s">
-        <v>279</v>
-      </c>
-      <c r="AT50" t="s">
-        <v>279</v>
-      </c>
-      <c r="AU50" t="s">
-        <v>326</v>
-      </c>
-      <c r="AV50" t="s">
-        <v>334</v>
-      </c>
-      <c r="AW50" t="s">
-        <v>343</v>
-      </c>
-      <c r="AX50" t="s">
-        <v>351</v>
+      <c r="AS54" t="s">
+        <v>291</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>291</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>349</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>358</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -8428,6 +8973,10 @@
     <hyperlink ref="I48" r:id="rId47"/>
     <hyperlink ref="I49" r:id="rId48"/>
     <hyperlink ref="I50" r:id="rId49"/>
+    <hyperlink ref="I51" r:id="rId50"/>
+    <hyperlink ref="I52" r:id="rId51"/>
+    <hyperlink ref="I53" r:id="rId52"/>
+    <hyperlink ref="I54" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notion data/Danh mục dịch vụ.xlsx
+++ b/Notion data/Danh mục dịch vụ.xlsx
@@ -745,7 +745,7 @@
     <t>[{'id': '44b8a0ba-550f-4914-95fc-43e4096d9e32'}, {'id': '40468be2-f999-4e41-a390-18551177770e'}, {'id': 'd45b4378-4c1d-401d-9988-bfdd574be03d'}, {'id': '3edfdf98-7aa0-4a76-9216-99de6a361067'}, {'id': 'a68948b4-6055-443a-85d5-508e8f8f72f0'}, {'id': '809f99c9-8a86-448a-b8a7-107c756853d1'}, {'id': 'a3bb4f64-a8b3-4473-9a72-4afc8ec81402'}, {'id': '9f1ec962-eb0c-47e8-bfed-067c6db89b62'}, {'id': '0a903e96-49f6-46d4-ac1c-58a4b9bb3211'}]</t>
   </si>
   <si>
-    <t>[{'id': '88bb98a4-a180-4efc-9686-68a6f1f6d80d'}, {'id': '4962d2fd-7a4f-4990-bf55-45998f1c9875'}, {'id': 'a512f27b-95c1-4f37-b75e-f3e1e4ebe5c2'}]</t>
+    <t>[{'id': '88bb98a4-a180-4efc-9686-68a6f1f6d80d'}, {'id': '4962d2fd-7a4f-4990-bf55-45998f1c9875'}, {'id': 'a512f27b-95c1-4f37-b75e-f3e1e4ebe5c2'}, {'id': '3d405af9-6325-4921-8b94-d8fa3a7b174f'}]</t>
   </si>
   <si>
     <t>[{'id': '9dae482f-7541-43d7-8f64-6f8624cb6383'}]</t>
@@ -796,7 +796,7 @@
     <t>[{'id': 'b127c463-053c-4ce5-922a-8eb073b7c973'}]</t>
   </si>
   <si>
-    <t>[{'id': '8957471d-282f-4d80-ac85-98220f79ba2e'}, {'id': '22fd700c-3d02-498e-8dcc-fa7d34284fbc'}, {'id': '39269a39-f58a-40dc-9abe-0cabd1207d4a'}, {'id': '2b986cdd-219c-41dc-acdf-d756d64d6d3b'}, {'id': '0182c351-2448-4d7e-914c-80b4cb64dec2'}, {'id': 'ca9921a2-bef2-4bd9-908b-8e0357dd8abb'}, {'id': 'c82cd687-0a71-42c7-bce0-8598aa9c8149'}, {'id': 'a984bd25-5eae-4288-ab00-a9a15ec4fd03'}, {'id': '3e2b8a26-bda0-407c-9119-f817bbdd850a'}]</t>
+    <t>[{'id': '8957471d-282f-4d80-ac85-98220f79ba2e'}, {'id': '22fd700c-3d02-498e-8dcc-fa7d34284fbc'}, {'id': '39269a39-f58a-40dc-9abe-0cabd1207d4a'}, {'id': '2b986cdd-219c-41dc-acdf-d756d64d6d3b'}, {'id': '0182c351-2448-4d7e-914c-80b4cb64dec2'}, {'id': 'ca9921a2-bef2-4bd9-908b-8e0357dd8abb'}, {'id': 'c82cd687-0a71-42c7-bce0-8598aa9c8149'}, {'id': 'a984bd25-5eae-4288-ab00-a9a15ec4fd03'}, {'id': '3e2b8a26-bda0-407c-9119-f817bbdd850a'}, {'id': 'c5b73af4-4b8b-4c0d-b430-3856dcb0279c'}]</t>
   </si>
   <si>
     <t>[{'id': '26e8c796-39c0-45e7-be49-77bc0e11a3a4'}, {'id': 'c70fbd97-6b34-4dd1-a868-faf313d1fbea'}]</t>
@@ -2848,7 +2848,7 @@
         <v>230</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U11" t="s">
         <v>231</v>
@@ -2881,7 +2881,7 @@
         <v>230</v>
       </c>
       <c r="AF11">
-        <v>1500000</v>
+        <v>5500000</v>
       </c>
       <c r="AG11" t="s">
         <v>286</v>
@@ -5472,7 +5472,7 @@
         <v>230</v>
       </c>
       <c r="T30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U30" t="s">
         <v>231</v>
@@ -5508,7 +5508,7 @@
         <v>230</v>
       </c>
       <c r="AF30">
-        <v>18700000</v>
+        <v>23700000</v>
       </c>
       <c r="AG30" t="s">
         <v>286</v>

--- a/Notion data/Danh mục dịch vụ.xlsx
+++ b/Notion data/Danh mục dịch vụ.xlsx
@@ -916,7 +916,7 @@
     <t>relation</t>
   </si>
   <si>
-    <t>[{'id': 'aeff8e2c-4cd5-419e-b68b-70202e7091c7'}, {'id': '99df71bc-ecbd-417d-9cbb-808a56a4320c'}]</t>
+    <t>[{'id': 'aeff8e2c-4cd5-419e-b68b-70202e7091c7'}, {'id': '99df71bc-ecbd-417d-9cbb-808a56a4320c'}, {'id': '6baf0e5b-cc1c-4ffe-823f-512691b1408a'}]</t>
   </si>
   <si>
     <t>[]</t>
@@ -1906,7 +1906,7 @@
         <v>295</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U2" t="s">
         <v>296</v>
@@ -1939,7 +1939,7 @@
         <v>295</v>
       </c>
       <c r="AF2">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="AG2" t="s">
         <v>353</v>
